--- a/documents/example_docs_school/учебный план.xlsx
+++ b/documents/example_docs_school/учебный план.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_school/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28E318C-B176-5E43-B893-4701A0243A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8658F5-67D1-AF46-8EDB-36FE600A83C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/documents/example_docs_school/учебный план.xlsx
+++ b/documents/example_docs_school/учебный план.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_school/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8658F5-67D1-AF46-8EDB-36FE600A83C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10579EF4-5751-5B44-94E9-9F4D00238F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
